--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_12_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53328.56149657444</v>
+        <v>10612383.7378183</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53328.56149657444</v>
+        <v>10612383.7378183</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23800.49706245809</v>
+        <v>2763467.700135586</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23800.49706245809</v>
+        <v>2763467.700135586</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1495300553.740881</v>
+        <v>59554351.59259604</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12221.40797790805</v>
+        <v>1336913.616948529</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23737.96635346553</v>
+        <v>2564133.322839691</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35254.524729023</v>
+        <v>3791353.028730855</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>48607.6596540034</v>
+        <v>4875503.167840198</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>60555.83776064339</v>
+        <v>6103020.260715863</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>72504.01586728335</v>
+        <v>7330537.353591525</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>84452.19397392331</v>
+        <v>8558054.446467185</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>96400.37208056326</v>
+        <v>9785571.539342845</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>109665.5732448162</v>
+        <v>10851927.7865339</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>121613.0935823916</v>
+        <v>12079268.47121098</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133560.613919967</v>
+        <v>13306609.15588807</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>144990.2195682517</v>
+        <v>14516525.26905196</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156506.7779438092</v>
+        <v>15743744.97494313</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169015.9007715406</v>
+        <v>16830652.24223623</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>185333.632226773</v>
+        <v>17450330.7228687</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>250.9999999999908</v>
@@ -27052,13 +27052,13 @@
         <v>98.00000000000921</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>152.9999999999904</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,7 +27144,7 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>184</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
